--- a/data/trans_orig/P55S2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P55S2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D299ED4-D8B3-4DC9-B100-5DF1FA4A0D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2806469-78D8-4C2E-B9E4-F8FF550CFD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{26FD3C04-A66E-4A64-8219-0CF8494F925F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C576BC1F-CC25-4470-AE7B-321CDC7721FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="198">
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -329,19 +329,19 @@
     <t>6,53%</t>
   </si>
   <si>
-    <t>28,3%</t>
+    <t>28,42%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>30,37%</t>
+    <t>29,87%</t>
   </si>
   <si>
     <t>6,77%</t>
   </si>
   <si>
-    <t>25,31%</t>
+    <t>20,74%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -350,286 +350,289 @@
     <t>33,4%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
   </si>
   <si>
     <t>37,81%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
   </si>
   <si>
     <t>36,0%</t>
   </si>
   <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>27,22%</t>
+    <t>28,18%</t>
   </si>
   <si>
     <t>24,59%</t>
   </si>
   <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,83%)</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,83%)</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985D9F0A-94F4-4692-9AD5-A5A34912E1E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4683ED-6493-4B89-BE9E-AAFD475A3AE1}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4132,7 +4135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCC764D-0DD8-4555-A0B5-1B1CD1AEA95A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D360A64-0792-42EA-A3E7-0277B2418083}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7223,7 +7226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27237DC9-6539-47CA-8B9A-725E561F9ED9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A46449-9255-4E34-A627-F3D7B69AD383}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9706,10 +9709,10 @@
         <v>122</v>
       </c>
       <c r="K55" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M55" s="7">
         <v>7</v>
@@ -9718,13 +9721,13 @@
         <v>8108</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -9739,13 +9742,13 @@
         <v>2711</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
@@ -9754,13 +9757,13 @@
         <v>1022</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M56" s="7">
         <v>4</v>
@@ -9769,13 +9772,13 @@
         <v>3733</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10167,10 +10170,10 @@
         <v>122</v>
       </c>
       <c r="K64" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L64" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M64" s="7">
         <v>7</v>
@@ -10179,13 +10182,13 @@
         <v>8108</v>
       </c>
       <c r="O64" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P64" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P64" s="7" t="s">
+      <c r="Q64" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -10200,13 +10203,13 @@
         <v>2711</v>
       </c>
       <c r="E65" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -10215,13 +10218,13 @@
         <v>1022</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M65" s="7">
         <v>4</v>
@@ -10230,13 +10233,13 @@
         <v>3733</v>
       </c>
       <c r="O65" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P65" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P65" s="7" t="s">
+      <c r="Q65" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -10314,7 +10317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51697F8-7F36-48D0-B570-FE1D410D402A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D36514-6B6A-4CAD-A46D-AD5B3EB9E0F8}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10331,7 +10334,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -12473,13 +12476,13 @@
         <v>1409</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H49" s="7">
         <v>2</v>
@@ -12488,13 +12491,13 @@
         <v>1119</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M49" s="7">
         <v>4</v>
@@ -12503,13 +12506,13 @@
         <v>2529</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -12524,13 +12527,13 @@
         <v>658</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -12545,7 +12548,7 @@
         <v>25</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -12554,13 +12557,13 @@
         <v>658</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -12575,13 +12578,13 @@
         <v>361</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -12590,13 +12593,13 @@
         <v>328</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M51" s="7">
         <v>2</v>
@@ -12605,13 +12608,13 @@
         <v>689</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -12713,7 +12716,7 @@
         <v>170</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -12728,13 +12731,13 @@
         <v>1959</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H54" s="7">
         <v>16</v>
@@ -12743,13 +12746,13 @@
         <v>9499</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M54" s="7">
         <v>19</v>
@@ -12758,13 +12761,13 @@
         <v>11458</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -12779,13 +12782,13 @@
         <v>20056</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H55" s="7">
         <v>49</v>
@@ -12794,13 +12797,13 @@
         <v>28113</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M55" s="7">
         <v>78</v>
@@ -12809,13 +12812,13 @@
         <v>48170</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -12830,13 +12833,13 @@
         <v>6360</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H56" s="7">
         <v>10</v>
@@ -12845,13 +12848,13 @@
         <v>4937</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M56" s="7">
         <v>19</v>
@@ -12860,13 +12863,13 @@
         <v>11296</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -12934,13 +12937,13 @@
         <v>1409</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
@@ -12949,13 +12952,13 @@
         <v>1119</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M58" s="7">
         <v>4</v>
@@ -12964,13 +12967,13 @@
         <v>2529</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P58" s="7" t="s">
+      <c r="Q58" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -12985,13 +12988,13 @@
         <v>658</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -13006,7 +13009,7 @@
         <v>25</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M59" s="7">
         <v>1</v>
@@ -13015,13 +13018,13 @@
         <v>658</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -13036,13 +13039,13 @@
         <v>361</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
@@ -13051,13 +13054,13 @@
         <v>328</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M60" s="7">
         <v>2</v>
@@ -13066,13 +13069,13 @@
         <v>689</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -13174,7 +13177,7 @@
         <v>170</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -13189,13 +13192,13 @@
         <v>1959</v>
       </c>
       <c r="E63" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="G63" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H63" s="7">
         <v>16</v>
@@ -13204,13 +13207,13 @@
         <v>9499</v>
       </c>
       <c r="J63" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K63" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K63" s="7" t="s">
+      <c r="L63" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M63" s="7">
         <v>19</v>
@@ -13219,13 +13222,13 @@
         <v>11458</v>
       </c>
       <c r="O63" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P63" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P63" s="7" t="s">
+      <c r="Q63" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q63" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -13240,13 +13243,13 @@
         <v>20056</v>
       </c>
       <c r="E64" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="G64" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H64" s="7">
         <v>49</v>
@@ -13255,13 +13258,13 @@
         <v>28113</v>
       </c>
       <c r="J64" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="L64" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M64" s="7">
         <v>78</v>
@@ -13270,13 +13273,13 @@
         <v>48170</v>
       </c>
       <c r="O64" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P64" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P64" s="7" t="s">
+      <c r="Q64" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -13291,13 +13294,13 @@
         <v>6360</v>
       </c>
       <c r="E65" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H65" s="7">
         <v>10</v>
@@ -13306,13 +13309,13 @@
         <v>4937</v>
       </c>
       <c r="J65" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K65" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K65" s="7" t="s">
+      <c r="L65" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M65" s="7">
         <v>19</v>
@@ -13321,13 +13324,13 @@
         <v>11296</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P55S2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P55S2-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2806469-78D8-4C2E-B9E4-F8FF550CFD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{243D9C8F-62CA-4D08-9510-4297CD95C294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C576BC1F-CC25-4470-AE7B-321CDC7721FA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5D8B6159-3A56-4AD3-A343-DBB70A1A2ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="197">
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -131,217 +131,214 @@
     <t>18,42%</t>
   </si>
   <si>
-    <t>71,56%</t>
+    <t>70,79%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>48,12%</t>
+    <t>55,61%</t>
   </si>
   <si>
     <t>17,62%</t>
   </si>
   <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2012 (Tasa respuesta: 0,74%)</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
     <t>72,48%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2012 (Tasa respuesta: 0,74%)</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
   </si>
   <si>
     <t>11,46%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
   </si>
   <si>
     <t>8,2%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2015 (Tasa respuesta: 0,43%)</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2016 (Tasa respuesta: 0,43%)</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>28,42%</t>
+    <t>28,73%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>29,87%</t>
-  </si>
-  <si>
     <t>6,77%</t>
   </si>
   <si>
-    <t>20,74%</t>
+    <t>22,0%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -350,100 +347,100 @@
     <t>33,4%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
   </si>
   <si>
     <t>37,81%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
   </si>
   <si>
     <t>36,0%</t>
   </si>
   <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>28,18%</t>
+    <t>27,15%</t>
   </si>
   <si>
     <t>24,59%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
   </si>
   <si>
     <t>31,41%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
   </si>
   <si>
     <t>24,77%</t>
   </si>
   <si>
-    <t>55,52%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
   </si>
   <si>
     <t>27,5%</t>
   </si>
   <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
   </si>
   <si>
     <t>22,36%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
+    <t>50,47%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>28,97%</t>
+    <t>28,19%</t>
   </si>
   <si>
     <t>12,66%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
   </si>
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,83%)</t>
@@ -1044,7 +1041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4683ED-6493-4B89-BE9E-AAFD475A3AE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4865A897-A4EC-4592-A59E-B8CC5C3EBDF7}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4135,7 +4132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D360A64-0792-42EA-A3E7-0277B2418083}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C892A046-EA05-4A78-B3A0-D754395F57B7}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7226,7 +7223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A46449-9255-4E34-A627-F3D7B69AD383}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F284EBA0-8156-44E6-A3C6-3B150F0B636D}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9406,7 +9403,7 @@
         <v>24</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="M49" s="7">
         <v>2</v>
@@ -9415,13 +9412,13 @@
         <v>1996</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9472,7 +9469,7 @@
         <v>25</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -9523,7 +9520,7 @@
         <v>25</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -9538,13 +9535,13 @@
         <v>4051</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H52" s="7">
         <v>5</v>
@@ -9553,13 +9550,13 @@
         <v>6563</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="L52" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M52" s="7">
         <v>10</v>
@@ -9568,13 +9565,13 @@
         <v>10614</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P52" s="7" t="s">
+      <c r="Q52" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -9589,13 +9586,13 @@
         <v>764</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H53" s="7">
         <v>4</v>
@@ -9604,13 +9601,13 @@
         <v>4269</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="L53" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M53" s="7">
         <v>5</v>
@@ -9619,13 +9616,13 @@
         <v>5033</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="Q53" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -9676,7 +9673,7 @@
         <v>25</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -9691,13 +9688,13 @@
         <v>3809</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H55" s="7">
         <v>3</v>
@@ -9706,10 +9703,10 @@
         <v>4299</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>123</v>
@@ -9745,10 +9742,10 @@
         <v>127</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
@@ -9757,13 +9754,13 @@
         <v>1022</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M56" s="7">
         <v>4</v>
@@ -9772,13 +9769,13 @@
         <v>3733</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -9867,7 +9864,7 @@
         <v>24</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="M58" s="7">
         <v>2</v>
@@ -9876,13 +9873,13 @@
         <v>1996</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -9933,7 +9930,7 @@
         <v>25</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -9984,7 +9981,7 @@
         <v>25</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -9999,13 +9996,13 @@
         <v>4051</v>
       </c>
       <c r="E61" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="G61" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H61" s="7">
         <v>5</v>
@@ -10014,13 +10011,13 @@
         <v>6563</v>
       </c>
       <c r="J61" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K61" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="L61" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M61" s="7">
         <v>10</v>
@@ -10029,13 +10026,13 @@
         <v>10614</v>
       </c>
       <c r="O61" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P61" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P61" s="7" t="s">
+      <c r="Q61" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -10050,13 +10047,13 @@
         <v>764</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H62" s="7">
         <v>4</v>
@@ -10065,13 +10062,13 @@
         <v>4269</v>
       </c>
       <c r="J62" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K62" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K62" s="7" t="s">
+      <c r="L62" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M62" s="7">
         <v>5</v>
@@ -10080,13 +10077,13 @@
         <v>5033</v>
       </c>
       <c r="O62" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P62" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P62" s="7" t="s">
+      <c r="Q62" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -10137,7 +10134,7 @@
         <v>25</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -10152,13 +10149,13 @@
         <v>3809</v>
       </c>
       <c r="E64" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="G64" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H64" s="7">
         <v>3</v>
@@ -10167,10 +10164,10 @@
         <v>4299</v>
       </c>
       <c r="J64" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="L64" s="7" t="s">
         <v>123</v>
@@ -10206,10 +10203,10 @@
         <v>127</v>
       </c>
       <c r="F65" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -10218,13 +10215,13 @@
         <v>1022</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M65" s="7">
         <v>4</v>
@@ -10233,13 +10230,13 @@
         <v>3733</v>
       </c>
       <c r="O65" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P65" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P65" s="7" t="s">
+      <c r="Q65" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -10317,7 +10314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D36514-6B6A-4CAD-A46D-AD5B3EB9E0F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2F39B5-8DAE-4632-8019-3CB083857DDA}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10334,7 +10331,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -12476,13 +12473,13 @@
         <v>1409</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H49" s="7">
         <v>2</v>
@@ -12491,13 +12488,13 @@
         <v>1119</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M49" s="7">
         <v>4</v>
@@ -12506,13 +12503,13 @@
         <v>2529</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -12527,13 +12524,13 @@
         <v>658</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -12548,7 +12545,7 @@
         <v>25</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -12557,13 +12554,13 @@
         <v>658</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -12578,13 +12575,13 @@
         <v>361</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -12593,13 +12590,13 @@
         <v>328</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M51" s="7">
         <v>2</v>
@@ -12608,13 +12605,13 @@
         <v>689</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -12629,13 +12626,13 @@
         <v>18996</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H52" s="7">
         <v>105</v>
@@ -12644,13 +12641,13 @@
         <v>53334</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="L52" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M52" s="7">
         <v>134</v>
@@ -12659,13 +12656,13 @@
         <v>72330</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P52" s="7" t="s">
+      <c r="Q52" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -12680,13 +12677,13 @@
         <v>14400</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H53" s="7">
         <v>56</v>
@@ -12695,13 +12692,13 @@
         <v>34939</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="L53" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M53" s="7">
         <v>78</v>
@@ -12710,10 +12707,10 @@
         <v>49339</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>37</v>
@@ -12731,13 +12728,13 @@
         <v>1959</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H54" s="7">
         <v>16</v>
@@ -12746,13 +12743,13 @@
         <v>9499</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M54" s="7">
         <v>19</v>
@@ -12761,13 +12758,13 @@
         <v>11458</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -12782,13 +12779,13 @@
         <v>20056</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H55" s="7">
         <v>49</v>
@@ -12797,13 +12794,13 @@
         <v>28113</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M55" s="7">
         <v>78</v>
@@ -12812,13 +12809,13 @@
         <v>48170</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -12833,13 +12830,13 @@
         <v>6360</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H56" s="7">
         <v>10</v>
@@ -12848,13 +12845,13 @@
         <v>4937</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M56" s="7">
         <v>19</v>
@@ -12863,13 +12860,13 @@
         <v>11296</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -12937,13 +12934,13 @@
         <v>1409</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
@@ -12952,13 +12949,13 @@
         <v>1119</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M58" s="7">
         <v>4</v>
@@ -12967,13 +12964,13 @@
         <v>2529</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P58" s="7" t="s">
+      <c r="Q58" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -12988,13 +12985,13 @@
         <v>658</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -13009,7 +13006,7 @@
         <v>25</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M59" s="7">
         <v>1</v>
@@ -13018,13 +13015,13 @@
         <v>658</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -13039,13 +13036,13 @@
         <v>361</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
@@ -13054,13 +13051,13 @@
         <v>328</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M60" s="7">
         <v>2</v>
@@ -13069,13 +13066,13 @@
         <v>689</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -13090,13 +13087,13 @@
         <v>18996</v>
       </c>
       <c r="E61" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="G61" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H61" s="7">
         <v>105</v>
@@ -13105,13 +13102,13 @@
         <v>53334</v>
       </c>
       <c r="J61" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K61" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="L61" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M61" s="7">
         <v>134</v>
@@ -13120,13 +13117,13 @@
         <v>72330</v>
       </c>
       <c r="O61" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P61" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P61" s="7" t="s">
+      <c r="Q61" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -13141,13 +13138,13 @@
         <v>14400</v>
       </c>
       <c r="E62" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="G62" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H62" s="7">
         <v>56</v>
@@ -13156,13 +13153,13 @@
         <v>34939</v>
       </c>
       <c r="J62" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K62" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K62" s="7" t="s">
+      <c r="L62" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M62" s="7">
         <v>78</v>
@@ -13171,10 +13168,10 @@
         <v>49339</v>
       </c>
       <c r="O62" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P62" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P62" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="Q62" s="7" t="s">
         <v>37</v>
@@ -13192,13 +13189,13 @@
         <v>1959</v>
       </c>
       <c r="E63" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="G63" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H63" s="7">
         <v>16</v>
@@ -13207,13 +13204,13 @@
         <v>9499</v>
       </c>
       <c r="J63" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K63" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K63" s="7" t="s">
+      <c r="L63" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M63" s="7">
         <v>19</v>
@@ -13222,13 +13219,13 @@
         <v>11458</v>
       </c>
       <c r="O63" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P63" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P63" s="7" t="s">
+      <c r="Q63" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q63" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -13243,13 +13240,13 @@
         <v>20056</v>
       </c>
       <c r="E64" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="G64" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H64" s="7">
         <v>49</v>
@@ -13258,13 +13255,13 @@
         <v>28113</v>
       </c>
       <c r="J64" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="L64" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M64" s="7">
         <v>78</v>
@@ -13273,13 +13270,13 @@
         <v>48170</v>
       </c>
       <c r="O64" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P64" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P64" s="7" t="s">
+      <c r="Q64" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -13294,13 +13291,13 @@
         <v>6360</v>
       </c>
       <c r="E65" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H65" s="7">
         <v>10</v>
@@ -13309,13 +13306,13 @@
         <v>4937</v>
       </c>
       <c r="J65" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K65" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K65" s="7" t="s">
+      <c r="L65" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M65" s="7">
         <v>19</v>
@@ -13324,13 +13321,13 @@
         <v>11296</v>
       </c>
       <c r="O65" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P65" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P65" s="7" t="s">
+      <c r="Q65" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
